--- a/tradept/Excel/Localization/english/J爵位等级_NobilityRanks_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J爵位等级_NobilityRanks_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F0772-1B18-4B87-93BE-25CFD026BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE6ABB-18FA-4C17-A99B-72041300F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>爵位ID_ID</t>
   </si>
@@ -117,16 +117,10 @@
     <t>野马王</t>
   </si>
   <si>
-    <t>Akhal Sultan</t>
-  </si>
-  <si>
     <t>雄鹰_R6</t>
   </si>
   <si>
     <t>雄鹰领主</t>
-  </si>
-  <si>
-    <t>Nasir Sultan</t>
   </si>
   <si>
     <t>蛮牛_R6</t>
@@ -193,78 +187,100 @@
     <t>首领</t>
   </si>
   <si>
-    <t>Capitán</t>
-  </si>
-  <si>
-    <t>Deputy. Traducción: Diputado</t>
-  </si>
-  <si>
-    <t>Gobernador</t>
-  </si>
-  <si>
     <t>Marechal</t>
   </si>
   <si>
-    <t>Jefe</t>
-  </si>
-  <si>
-    <t>Señor del Pantano</t>
-  </si>
-  <si>
-    <t>Guerrero alpino</t>
-  </si>
-  <si>
-    <t>Reina Dakn</t>
-  </si>
-  <si>
-    <t>Cachorro de lobo</t>
-  </si>
-  <si>
     <t>Lobo Alfa</t>
   </si>
   <si>
-    <t>Ifrit General. Traducción: General Ifrit</t>
-  </si>
-  <si>
-    <t>Mago Ifrit</t>
-  </si>
-  <si>
     <t>Sacerdote Ifrit</t>
   </si>
   <si>
     <t>Comandante Ifrit</t>
   </si>
   <si>
-    <t>Llama Suprema</t>
-  </si>
-  <si>
-    <t>Gobernar hasta 1 pueblo, excluyendo bases. El 70% de los ingresos del pueblo deben ser entregados como tributo a su líder. Puede comandar 2 escuadrones tribales pero no tiene guardias personales. No hay límite para todas las tribus</t>
-  </si>
-  <si>
-    <t>Gobierna hasta 2 pueblos, excluyendo bases. El 60% de los ingresos de los pueblos deben ser entregados como tributo a su líder. Puede comandar 4 escuadrones tribales y seleccionar 1 de los escuadrones guarnecidos de un pueblo como guardias personales. Los guardias personales pueden ser reseleccionados si son disueltos o derrotados. No hay límite para todas las tribus</t>
-  </si>
-  <si>
-    <t>Gobierna hasta 2 pueblos y una ciudad. El 50% de los ingresos deben ser entregados como tributo a su líder. Puede comandar 6 escuadrones tribales y seleccionar 2 escuadrones guarnecidos como guardias personales. No hay límite para todas las tribus</t>
-  </si>
-  <si>
-    <t>Gobierna hasta 2 pueblos y 2 ciudades. El 40% de los ingresos deben ser entregados como tributo a su líder. Puede comandar 8 escuadrones tribales y seleccionar 4 escuadrones guarnecidos como guardias personales. Solo se permiten 3 por tribu</t>
-  </si>
-  <si>
-    <t>Gobierna hasta 3 pueblos y 3 ciudades. El 30% de los ingresos deben ser entregados como tributo a su líder. Puede comandar 10 escuadrones tribales y seleccionar 4 escuadrones guarnecidos como guardias personales. Solo se permiten 2 por tribu</t>
-  </si>
-  <si>
-    <t>Poseedor de poder supremo</t>
-  </si>
-  <si>
-    <t>Gobierna hasta 3 pueblos y 3 ciudades. El 30% de los ingresos deben ser entregados como tributo a su líder. Puede comandar 10 escuadrones tribales y seleccionar 4 escuadrones guarnecidos como guardias personales. Solo se permiten 2 por tribu.
-Para convertirse en el Lobo Alfa se requiere un nivel de personaje de Lv. 20 o superior</t>
+    <t>Capitão</t>
+  </si>
+  <si>
+    <t>Regra até 1 cidade, excluindo bases. 70% da renda da cidade deve ser dada como tributo ao seu líder. Pode comandar 2 equipes tribais, mas sem guardas pessoais. Sem limite para todas as tribos.</t>
+  </si>
+  <si>
+    <t>Vice</t>
+  </si>
+  <si>
+    <t>Regra até 2 cidades, excluindo bases. 60% da renda das cidades deve ser dada como tributo ao seu líder. Pode comandar 4 equipes tribais e escolher 1 equipe guarnecida da cidade como guardas pessoais. Os guardas pessoais podem ser reselecionados se forem desfeitos ou derrotados. Sem limite para todas as tribos.</t>
+  </si>
+  <si>
+    <t>Governador</t>
+  </si>
+  <si>
+    <t>Regra até 2 cidades e uma cidade. 50% das rendas devem ser dadas como tributo ao seu líder. Pode comandar 6 equipes tribais e escolher 2 equipes guarnecidas como guardas pessoais. Sem limite para todas as tribos.</t>
+  </si>
+  <si>
+    <t>Regra até 2 cidades e 2 cidades. 40% das rendas devem ser dadas como tributo ao seu líder. Pode comandar 8 equipes tribais e escolher 4 equipes guarnecidas como guardas pessoais. Apenas 3 permitidos por tribo.</t>
+  </si>
+  <si>
+    <t>Regra até 3 cidades e 3 cidades. 30% das rendas devem ser dadas como tributo ao seu líder. Pode comandar 10 equipes tribais e escolher 4 equipes guarnecidas como guardas pessoais. Apenas 2 permitidos por tribo.</t>
+  </si>
+  <si>
+    <t>Chefe</t>
+  </si>
+  <si>
+    <t>Detentor do poder supremo.</t>
+  </si>
+  <si>
+    <t>Sultão Akhal</t>
+  </si>
+  <si>
+    <t>Sultão Nasir</t>
+  </si>
+  <si>
+    <t>Senhor do Pântano</t>
+  </si>
+  <si>
+    <t>Guerrilheiro Alpino</t>
+  </si>
+  <si>
+    <t>Rainha Dakn</t>
+  </si>
+  <si>
+    <t>Filhote de Lobo</t>
+  </si>
+  <si>
+    <t>Regra até 3 cidades e 3 cidades. 30% das rendas devem ser dadas como tributo ao seu líder. Pode comandar 10 equipes tribais e escolher 4 equipes guarnecidas como guardas pessoais. Apenas 2 permitidos por tribo.
+Para se tornar o Alpha Wolf, é necessário um nível de personagem de Lv. 20 ou superior.</t>
+  </si>
+  <si>
+    <t>General Ifrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regra para até 1 cidade, excluindo bases. 70% da renda da cidade deve ser entregue como tributo ao seu líder. Pode comandar 2 equipes tribais, mas não possui guardas pessoais. Sem limite para todas as tribos.
+</t>
+  </si>
+  <si>
+    <t>Feiticeiro Ifrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regra para até 2 cidades, excluindo bases. 60% da renda das cidades deve ser entregue como tributo ao seu líder. Pode comandar 4 equipes tribais e selecionar 1 equipe da guarnição de uma cidade como guardas pessoais. Os guardas pessoais podem ser reselecionados se forem desfeitos ou derrotados. Sem limite para todas as tribos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regra para até 2 cidades e uma cidade. 50% das rendas devem ser entregues como tributo ao seu líder. Pode comandar 6 equipes tribais e selecionar 2 equipes da guarnição como guardas pessoais. Sem limite para todas as tribos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regra para até 2 cidades e 2 cidades. 40% das rendas devem ser entregues como tributo ao seu líder. Pode comandar 8 equipes tribais e selecionar 4 equipes da guarnição como guardas pessoais. Apenas 3 permitidos por tribo.
+</t>
+  </si>
+  <si>
+    <t>Chama Suprema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -274,12 +290,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,16 +311,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFF08080" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -308,23 +329,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,7 +386,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -643,12 +685,12 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,418 +713,418 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="285">
+    <row r="2" spans="1:7" ht="168" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5">
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="288" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>54</v>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="360">
+      <c r="G3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="216" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>55</v>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="375">
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="228" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="375">
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="228" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
+      <c r="E6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60">
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>57</v>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60">
+      <c r="G7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
+      <c r="E8" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60">
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60">
+      <c r="G9" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60">
+      <c r="G10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60">
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="375">
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="409.5">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="285">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.5">
+      <c r="G15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="360">
+      <c r="G16" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="375">
+      <c r="G17" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60">
+      <c r="G18" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>73</v>
+      <c r="G19" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/J爵位等级_NobilityRanks_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J爵位等级_NobilityRanks_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE6ABB-18FA-4C17-A99B-72041300F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60BAC0-77B3-49C7-9169-6F681425D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,11 +684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
